--- a/Financials/Quarterly/NGG_QTR_FIN.xlsx
+++ b/Financials/Quarterly/NGG_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD46A36-6EBD-4327-A0CB-941AB87911C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NGG" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>NGG</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,97 +689,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11279600</v>
+        <v>8278500</v>
       </c>
       <c r="E8" s="3">
-        <v>8801400</v>
+        <v>11172700</v>
       </c>
       <c r="F8" s="3">
-        <v>11528500</v>
+        <v>8718000</v>
       </c>
       <c r="G8" s="3">
-        <v>8269400</v>
+        <v>11419200</v>
       </c>
       <c r="H8" s="3">
-        <v>17397400</v>
+        <v>8191100</v>
       </c>
       <c r="I8" s="3">
-        <v>9025300</v>
+        <v>17232500</v>
       </c>
       <c r="J8" s="3">
+        <v>8939700</v>
+      </c>
+      <c r="K8" s="3">
         <v>17588400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8380100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,8 +814,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +846,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +862,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,8 +892,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,37 +924,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-34200</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>292200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-332600</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>833500</v>
-      </c>
       <c r="G14" s="3">
-        <v>1064000</v>
+        <v>825600</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>1053900</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>172500</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +988,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +1001,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8357700</v>
+        <v>6952000</v>
       </c>
       <c r="E17" s="3">
-        <v>7123800</v>
+        <v>7979800</v>
       </c>
       <c r="F17" s="3">
-        <v>9242500</v>
+        <v>7056300</v>
       </c>
       <c r="G17" s="3">
-        <v>6331100</v>
+        <v>9155000</v>
       </c>
       <c r="H17" s="3">
-        <v>13150800</v>
+        <v>6271100</v>
       </c>
       <c r="I17" s="3">
-        <v>6590500</v>
+        <v>13026100</v>
       </c>
       <c r="J17" s="3">
+        <v>6528100</v>
+      </c>
+      <c r="K17" s="3">
         <v>13875000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6225800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2922000</v>
+        <v>1326500</v>
       </c>
       <c r="E18" s="3">
-        <v>1677600</v>
+        <v>3193000</v>
       </c>
       <c r="F18" s="3">
-        <v>2285900</v>
+        <v>1661700</v>
       </c>
       <c r="G18" s="3">
-        <v>1938300</v>
+        <v>2264300</v>
       </c>
       <c r="H18" s="3">
-        <v>4246600</v>
+        <v>1919900</v>
       </c>
       <c r="I18" s="3">
-        <v>2434700</v>
+        <v>4206400</v>
       </c>
       <c r="J18" s="3">
+        <v>2411700</v>
+      </c>
+      <c r="K18" s="3">
         <v>3713300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2154300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,153 +1079,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>189600</v>
+        <v>-18300</v>
       </c>
       <c r="E20" s="3">
-        <v>79000</v>
+        <v>-39100</v>
       </c>
       <c r="F20" s="3">
-        <v>-30300</v>
+        <v>-9100</v>
       </c>
       <c r="G20" s="3">
-        <v>-152700</v>
+        <v>-30000</v>
       </c>
       <c r="H20" s="3">
-        <v>-296300</v>
+        <v>-151300</v>
       </c>
       <c r="I20" s="3">
-        <v>-150100</v>
+        <v>-293500</v>
       </c>
       <c r="J20" s="3">
+        <v>-148700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-96100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-55300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4122900</v>
+        <v>2339900</v>
       </c>
       <c r="E21" s="3">
-        <v>2760000</v>
+        <v>4155500</v>
       </c>
       <c r="F21" s="3">
-        <v>3274900</v>
+        <v>2646400</v>
       </c>
       <c r="G21" s="3">
-        <v>2716500</v>
+        <v>3243800</v>
       </c>
       <c r="H21" s="3">
-        <v>5676700</v>
+        <v>2690800</v>
       </c>
       <c r="I21" s="3">
-        <v>3332800</v>
+        <v>5622900</v>
       </c>
       <c r="J21" s="3">
+        <v>3301200</v>
+      </c>
+      <c r="K21" s="3">
         <v>5200000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3048400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>661000</v>
+        <v>627400</v>
       </c>
       <c r="E22" s="3">
-        <v>641300</v>
+        <v>639100</v>
       </c>
       <c r="F22" s="3">
-        <v>650500</v>
+        <v>635200</v>
       </c>
       <c r="G22" s="3">
-        <v>514900</v>
+        <v>644300</v>
       </c>
       <c r="H22" s="3">
-        <v>883600</v>
+        <v>510000</v>
       </c>
       <c r="I22" s="3">
-        <v>509600</v>
+        <v>875200</v>
       </c>
       <c r="J22" s="3">
+        <v>504800</v>
+      </c>
+      <c r="K22" s="3">
         <v>1036300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>551700</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2450500</v>
+        <v>680800</v>
       </c>
       <c r="E23" s="3">
-        <v>1115300</v>
+        <v>2514700</v>
       </c>
       <c r="F23" s="3">
-        <v>1605200</v>
+        <v>1017400</v>
       </c>
       <c r="G23" s="3">
-        <v>1270700</v>
+        <v>1590000</v>
       </c>
       <c r="H23" s="3">
-        <v>3066800</v>
+        <v>1258700</v>
       </c>
       <c r="I23" s="3">
-        <v>1775000</v>
+        <v>3037700</v>
       </c>
       <c r="J23" s="3">
+        <v>1758200</v>
+      </c>
+      <c r="K23" s="3">
         <v>2580900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1547200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1369500</v>
+        <v>121300</v>
       </c>
       <c r="E24" s="3">
-        <v>205400</v>
+        <v>-1352600</v>
       </c>
       <c r="F24" s="3">
-        <v>318700</v>
+        <v>199600</v>
       </c>
       <c r="G24" s="3">
-        <v>173800</v>
+        <v>315600</v>
       </c>
       <c r="H24" s="3">
-        <v>562300</v>
+        <v>172200</v>
       </c>
       <c r="I24" s="3">
-        <v>393700</v>
+        <v>556900</v>
       </c>
       <c r="J24" s="3">
+        <v>390000</v>
+      </c>
+      <c r="K24" s="3">
         <v>614900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>356900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1269,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3820000</v>
+        <v>559500</v>
       </c>
       <c r="E26" s="3">
-        <v>909900</v>
+        <v>3867300</v>
       </c>
       <c r="F26" s="3">
-        <v>1286500</v>
+        <v>817800</v>
       </c>
       <c r="G26" s="3">
-        <v>1096900</v>
+        <v>1274300</v>
       </c>
       <c r="H26" s="3">
-        <v>2504500</v>
+        <v>1086500</v>
       </c>
       <c r="I26" s="3">
-        <v>1381300</v>
+        <v>2480800</v>
       </c>
       <c r="J26" s="3">
+        <v>1368200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1966000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1190400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3820000</v>
+        <v>558200</v>
       </c>
       <c r="E27" s="3">
-        <v>908600</v>
+        <v>3867300</v>
       </c>
       <c r="F27" s="3">
-        <v>1286500</v>
+        <v>816500</v>
       </c>
       <c r="G27" s="3">
-        <v>1094300</v>
+        <v>1274300</v>
       </c>
       <c r="H27" s="3">
-        <v>2503200</v>
+        <v>1083900</v>
       </c>
       <c r="I27" s="3">
-        <v>1378700</v>
+        <v>2479500</v>
       </c>
       <c r="J27" s="3">
+        <v>1365600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1979100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1195600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,37 +1365,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-35600</v>
+        <v>3900</v>
       </c>
       <c r="E29" s="3">
-        <v>-18400</v>
+        <v>-118700</v>
       </c>
       <c r="F29" s="3">
-        <v>8314200</v>
+        <v>65200</v>
       </c>
       <c r="G29" s="3">
-        <v>-433200</v>
+        <v>8235400</v>
       </c>
       <c r="H29" s="3">
-        <v>908600</v>
-      </c>
-      <c r="I29" s="3" t="s">
+        <v>-429100</v>
+      </c>
+      <c r="I29" s="3">
+        <v>900000</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>679500</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1429,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1461,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-189600</v>
+        <v>18300</v>
       </c>
       <c r="E32" s="3">
-        <v>-79000</v>
+        <v>39100</v>
       </c>
       <c r="F32" s="3">
-        <v>30300</v>
+        <v>9100</v>
       </c>
       <c r="G32" s="3">
-        <v>152700</v>
+        <v>30000</v>
       </c>
       <c r="H32" s="3">
-        <v>296300</v>
+        <v>151300</v>
       </c>
       <c r="I32" s="3">
-        <v>150100</v>
+        <v>293500</v>
       </c>
       <c r="J32" s="3">
+        <v>148700</v>
+      </c>
+      <c r="K32" s="3">
         <v>96100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3784500</v>
+        <v>562200</v>
       </c>
       <c r="E33" s="3">
-        <v>890200</v>
+        <v>3748600</v>
       </c>
       <c r="F33" s="3">
-        <v>9600700</v>
+        <v>881700</v>
       </c>
       <c r="G33" s="3">
-        <v>661000</v>
+        <v>9509700</v>
       </c>
       <c r="H33" s="3">
-        <v>3411800</v>
+        <v>654800</v>
       </c>
       <c r="I33" s="3">
-        <v>1378700</v>
+        <v>3379500</v>
       </c>
       <c r="J33" s="3">
+        <v>1365600</v>
+      </c>
+      <c r="K33" s="3">
         <v>2658600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1195600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1557,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3784500</v>
+        <v>562200</v>
       </c>
       <c r="E35" s="3">
-        <v>890200</v>
+        <v>3748600</v>
       </c>
       <c r="F35" s="3">
-        <v>9600700</v>
+        <v>881700</v>
       </c>
       <c r="G35" s="3">
-        <v>661000</v>
+        <v>9509700</v>
       </c>
       <c r="H35" s="3">
-        <v>3411800</v>
+        <v>654800</v>
       </c>
       <c r="I35" s="3">
-        <v>1378700</v>
+        <v>3379500</v>
       </c>
       <c r="J35" s="3">
+        <v>1365600</v>
+      </c>
+      <c r="K35" s="3">
         <v>2658600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1195600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1642,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,269 +1656,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>433200</v>
+        <v>169600</v>
       </c>
       <c r="E41" s="3">
-        <v>51400</v>
+        <v>429100</v>
       </c>
       <c r="F41" s="3">
-        <v>1499800</v>
+        <v>50900</v>
       </c>
       <c r="G41" s="3">
-        <v>213300</v>
+        <v>1485600</v>
       </c>
       <c r="H41" s="3">
-        <v>167200</v>
+        <v>211300</v>
       </c>
       <c r="I41" s="3">
-        <v>151400</v>
+        <v>165600</v>
       </c>
       <c r="J41" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K41" s="3">
         <v>156700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>453000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3547400</v>
+        <v>2162500</v>
       </c>
       <c r="E42" s="3">
-        <v>3388100</v>
+        <v>3513800</v>
       </c>
       <c r="F42" s="3">
-        <v>11510100</v>
+        <v>3356000</v>
       </c>
       <c r="G42" s="3">
-        <v>4286200</v>
+        <v>11401000</v>
       </c>
       <c r="H42" s="3">
-        <v>3947700</v>
+        <v>4245500</v>
       </c>
       <c r="I42" s="3">
-        <v>3126100</v>
+        <v>3910300</v>
       </c>
       <c r="J42" s="3">
+        <v>3096400</v>
+      </c>
+      <c r="K42" s="3">
         <v>3369700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4334900</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3834500</v>
+        <v>3161600</v>
       </c>
       <c r="E43" s="3">
-        <v>2879800</v>
+        <v>3798200</v>
       </c>
       <c r="F43" s="3">
-        <v>4009600</v>
+        <v>2852500</v>
       </c>
       <c r="G43" s="3">
-        <v>3080000</v>
+        <v>3971600</v>
       </c>
       <c r="H43" s="3">
-        <v>3255100</v>
+        <v>3050800</v>
       </c>
       <c r="I43" s="3">
-        <v>2823200</v>
+        <v>3224300</v>
       </c>
       <c r="J43" s="3">
+        <v>2796400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3734400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2486100</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>449000</v>
+        <v>573900</v>
       </c>
       <c r="E44" s="3">
-        <v>617600</v>
+        <v>444800</v>
       </c>
       <c r="F44" s="3">
-        <v>530700</v>
+        <v>611700</v>
       </c>
       <c r="G44" s="3">
-        <v>587300</v>
+        <v>525600</v>
       </c>
       <c r="H44" s="3">
-        <v>575400</v>
+        <v>581700</v>
       </c>
       <c r="I44" s="3">
-        <v>520100</v>
+        <v>570000</v>
       </c>
       <c r="J44" s="3">
+        <v>515200</v>
+      </c>
+      <c r="K44" s="3">
         <v>447700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>563600</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>533300</v>
+        <v>3013000</v>
       </c>
       <c r="E45" s="3">
-        <v>790100</v>
+        <v>528200</v>
       </c>
       <c r="F45" s="3">
-        <v>323900</v>
+        <v>782600</v>
       </c>
       <c r="G45" s="3">
-        <v>287100</v>
+        <v>320900</v>
       </c>
       <c r="H45" s="3">
-        <v>366100</v>
+        <v>284300</v>
       </c>
       <c r="I45" s="3">
+        <v>362600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>230900</v>
+      </c>
+      <c r="K45" s="3">
         <v>233100</v>
       </c>
-      <c r="J45" s="3">
-        <v>233100</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>267300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8797500</v>
+        <v>9080600</v>
       </c>
       <c r="E46" s="3">
-        <v>7726900</v>
+        <v>8714100</v>
       </c>
       <c r="F46" s="3">
-        <v>17874100</v>
+        <v>7653700</v>
       </c>
       <c r="G46" s="3">
-        <v>8453800</v>
+        <v>17704700</v>
       </c>
       <c r="H46" s="3">
-        <v>8311600</v>
+        <v>8373700</v>
       </c>
       <c r="I46" s="3">
-        <v>6853900</v>
+        <v>8232800</v>
       </c>
       <c r="J46" s="3">
+        <v>6788900</v>
+      </c>
+      <c r="K46" s="3">
         <v>7941600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8104800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4038600</v>
+        <v>1673400</v>
       </c>
       <c r="E47" s="3">
-        <v>4460000</v>
+        <v>4000300</v>
       </c>
       <c r="F47" s="3">
-        <v>4191300</v>
+        <v>4417700</v>
       </c>
       <c r="G47" s="3">
-        <v>1294400</v>
+        <v>4151600</v>
       </c>
       <c r="H47" s="3">
-        <v>1157500</v>
+        <v>1282100</v>
       </c>
       <c r="I47" s="3">
-        <v>1006000</v>
+        <v>1146500</v>
       </c>
       <c r="J47" s="3">
+        <v>996500</v>
+      </c>
+      <c r="K47" s="3">
         <v>853300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52478000</v>
+        <v>55643200</v>
       </c>
       <c r="E48" s="3">
-        <v>51993500</v>
+        <v>51980700</v>
       </c>
       <c r="F48" s="3">
-        <v>52441200</v>
+        <v>51500700</v>
       </c>
       <c r="G48" s="3">
-        <v>61245200</v>
+        <v>51944100</v>
       </c>
       <c r="H48" s="3">
-        <v>57101300</v>
+        <v>60664800</v>
       </c>
       <c r="I48" s="3">
-        <v>54608600</v>
+        <v>56560100</v>
       </c>
       <c r="J48" s="3">
+        <v>54091000</v>
+      </c>
+      <c r="K48" s="3">
         <v>53623600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50500200</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8352400</v>
+        <v>8934500</v>
       </c>
       <c r="E49" s="3">
-        <v>8680300</v>
+        <v>8273200</v>
       </c>
       <c r="F49" s="3">
-        <v>9242500</v>
+        <v>8598000</v>
       </c>
       <c r="G49" s="3">
-        <v>8976600</v>
+        <v>9155000</v>
       </c>
       <c r="H49" s="3">
-        <v>8166700</v>
+        <v>8891500</v>
       </c>
       <c r="I49" s="3">
-        <v>7762500</v>
+        <v>8089300</v>
       </c>
       <c r="J49" s="3">
+        <v>7688900</v>
+      </c>
+      <c r="K49" s="3">
         <v>7831000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7125200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1974,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +2006,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3743600</v>
+        <v>3924700</v>
       </c>
       <c r="E52" s="3">
-        <v>2993100</v>
+        <v>3708200</v>
       </c>
       <c r="F52" s="3">
-        <v>2948300</v>
+        <v>2964700</v>
       </c>
       <c r="G52" s="3">
-        <v>2890400</v>
+        <v>2920400</v>
       </c>
       <c r="H52" s="3">
-        <v>2866700</v>
+        <v>2863000</v>
       </c>
       <c r="I52" s="3">
-        <v>2176700</v>
+        <v>2839500</v>
       </c>
       <c r="J52" s="3">
+        <v>2156000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2291200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2156900</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2070,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>77410100</v>
+        <v>79256400</v>
       </c>
       <c r="E54" s="3">
-        <v>75853700</v>
+        <v>76676500</v>
       </c>
       <c r="F54" s="3">
-        <v>86697500</v>
+        <v>75134800</v>
       </c>
       <c r="G54" s="3">
-        <v>82860300</v>
+        <v>85875800</v>
       </c>
       <c r="H54" s="3">
-        <v>77603700</v>
+        <v>82075000</v>
       </c>
       <c r="I54" s="3">
-        <v>72407600</v>
+        <v>76868200</v>
       </c>
       <c r="J54" s="3">
+        <v>71721400</v>
+      </c>
+      <c r="K54" s="3">
         <v>72540600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>68723300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2118,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,182 +2132,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4546900</v>
+        <v>4100800</v>
       </c>
       <c r="E57" s="3">
-        <v>3795000</v>
+        <v>4503800</v>
       </c>
       <c r="F57" s="3">
-        <v>4404700</v>
+        <v>3759000</v>
       </c>
       <c r="G57" s="3">
-        <v>4128100</v>
+        <v>4362900</v>
       </c>
       <c r="H57" s="3">
-        <v>4325700</v>
+        <v>4089000</v>
       </c>
       <c r="I57" s="3">
-        <v>3767300</v>
+        <v>4284700</v>
       </c>
       <c r="J57" s="3">
+        <v>3731600</v>
+      </c>
+      <c r="K57" s="3">
         <v>4334900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3501300</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5855800</v>
+        <v>5392000</v>
       </c>
       <c r="E58" s="3">
-        <v>5088100</v>
+        <v>5800300</v>
       </c>
       <c r="F58" s="3">
-        <v>7237100</v>
+        <v>5039900</v>
       </c>
       <c r="G58" s="3">
-        <v>5463400</v>
+        <v>7168500</v>
       </c>
       <c r="H58" s="3">
-        <v>4754900</v>
+        <v>5411600</v>
       </c>
       <c r="I58" s="3">
-        <v>3818700</v>
+        <v>4709900</v>
       </c>
       <c r="J58" s="3">
+        <v>3782500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3987200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3697500</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1049500</v>
+        <v>1235200</v>
       </c>
       <c r="E59" s="3">
-        <v>1169300</v>
+        <v>1039500</v>
       </c>
       <c r="F59" s="3">
-        <v>2199000</v>
+        <v>1158200</v>
       </c>
       <c r="G59" s="3">
-        <v>1685500</v>
+        <v>2178200</v>
       </c>
       <c r="H59" s="3">
-        <v>1086400</v>
+        <v>1669500</v>
       </c>
       <c r="I59" s="3">
-        <v>1016600</v>
+        <v>1076100</v>
       </c>
       <c r="J59" s="3">
+        <v>1006900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1387900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1223300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11452100</v>
+        <v>10727900</v>
       </c>
       <c r="E60" s="3">
-        <v>10052400</v>
+        <v>11343600</v>
       </c>
       <c r="F60" s="3">
-        <v>13840800</v>
+        <v>9957100</v>
       </c>
       <c r="G60" s="3">
-        <v>11277000</v>
+        <v>13709600</v>
       </c>
       <c r="H60" s="3">
-        <v>10166900</v>
+        <v>11170100</v>
       </c>
       <c r="I60" s="3">
-        <v>8602600</v>
+        <v>10070600</v>
       </c>
       <c r="J60" s="3">
+        <v>8521100</v>
+      </c>
+      <c r="K60" s="3">
         <v>9710000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8422200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29203800</v>
+        <v>30664300</v>
       </c>
       <c r="E61" s="3">
-        <v>29292000</v>
+        <v>28927000</v>
       </c>
       <c r="F61" s="3">
-        <v>30473200</v>
+        <v>29014400</v>
       </c>
       <c r="G61" s="3">
-        <v>36974100</v>
+        <v>30184300</v>
       </c>
       <c r="H61" s="3">
-        <v>32568200</v>
+        <v>36623700</v>
       </c>
       <c r="I61" s="3">
-        <v>31288200</v>
+        <v>32259500</v>
       </c>
       <c r="J61" s="3">
+        <v>30991700</v>
+      </c>
+      <c r="K61" s="3">
         <v>30130800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30009600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11935400</v>
+        <v>12645300</v>
       </c>
       <c r="E62" s="3">
-        <v>14292400</v>
+        <v>11822300</v>
       </c>
       <c r="F62" s="3">
-        <v>15542100</v>
+        <v>14157000</v>
       </c>
       <c r="G62" s="3">
-        <v>18057100</v>
+        <v>15394800</v>
       </c>
       <c r="H62" s="3">
-        <v>17006300</v>
+        <v>17886000</v>
       </c>
       <c r="I62" s="3">
-        <v>16308400</v>
+        <v>16845200</v>
       </c>
       <c r="J62" s="3">
+        <v>16153900</v>
+      </c>
+      <c r="K62" s="3">
         <v>16932600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14330600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2354,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2386,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2418,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52612300</v>
+        <v>54061000</v>
       </c>
       <c r="E66" s="3">
-        <v>53657900</v>
+        <v>52113700</v>
       </c>
       <c r="F66" s="3">
-        <v>59877100</v>
+        <v>53149300</v>
       </c>
       <c r="G66" s="3">
-        <v>66325400</v>
+        <v>59309600</v>
       </c>
       <c r="H66" s="3">
-        <v>59754600</v>
+        <v>65696800</v>
       </c>
       <c r="I66" s="3">
-        <v>56211100</v>
+        <v>59188300</v>
       </c>
       <c r="J66" s="3">
+        <v>55678400</v>
+      </c>
+      <c r="K66" s="3">
         <v>56789200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52771700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2466,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2496,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2528,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2560,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2592,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>28441300</v>
+        <v>28156100</v>
       </c>
       <c r="E72" s="3">
-        <v>25411400</v>
+        <v>28171800</v>
       </c>
       <c r="F72" s="3">
-        <v>29735800</v>
+        <v>25170600</v>
       </c>
       <c r="G72" s="3">
-        <v>19824300</v>
+        <v>29453900</v>
       </c>
       <c r="H72" s="3">
-        <v>21470300</v>
+        <v>19636400</v>
       </c>
       <c r="I72" s="3">
-        <v>20070500</v>
+        <v>21266800</v>
       </c>
       <c r="J72" s="3">
+        <v>19880300</v>
+      </c>
+      <c r="K72" s="3">
         <v>19580700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19807200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2656,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2688,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2720,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24797800</v>
+        <v>25195400</v>
       </c>
       <c r="E76" s="3">
-        <v>22195800</v>
+        <v>24562800</v>
       </c>
       <c r="F76" s="3">
-        <v>26820400</v>
+        <v>21985400</v>
       </c>
       <c r="G76" s="3">
-        <v>16534900</v>
+        <v>26566200</v>
       </c>
       <c r="H76" s="3">
-        <v>17849100</v>
+        <v>16378200</v>
       </c>
       <c r="I76" s="3">
-        <v>16196500</v>
+        <v>17679900</v>
       </c>
       <c r="J76" s="3">
+        <v>16043000</v>
+      </c>
+      <c r="K76" s="3">
         <v>15751400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15951600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2784,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3784500</v>
+        <v>562200</v>
       </c>
       <c r="E81" s="3">
-        <v>890200</v>
+        <v>3748600</v>
       </c>
       <c r="F81" s="3">
-        <v>9600700</v>
+        <v>881700</v>
       </c>
       <c r="G81" s="3">
-        <v>661000</v>
+        <v>9509700</v>
       </c>
       <c r="H81" s="3">
-        <v>3411800</v>
+        <v>654800</v>
       </c>
       <c r="I81" s="3">
-        <v>1378700</v>
+        <v>3379500</v>
       </c>
       <c r="J81" s="3">
+        <v>1365600</v>
+      </c>
+      <c r="K81" s="3">
         <v>2658600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1195600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +2869,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1011300</v>
+        <v>1031700</v>
       </c>
       <c r="E83" s="3">
-        <v>1003400</v>
+        <v>1001700</v>
       </c>
       <c r="F83" s="3">
-        <v>811100</v>
+        <v>993900</v>
       </c>
       <c r="G83" s="3">
-        <v>1139000</v>
+        <v>803500</v>
       </c>
       <c r="H83" s="3">
-        <v>2125300</v>
+        <v>1128200</v>
       </c>
       <c r="I83" s="3">
-        <v>1048200</v>
+        <v>2105200</v>
       </c>
       <c r="J83" s="3">
+        <v>1038200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1967300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>949400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2931,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2963,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2995,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +3027,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3059,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3372300</v>
+        <v>2462500</v>
       </c>
       <c r="E89" s="3">
-        <v>2557200</v>
+        <v>3340300</v>
       </c>
       <c r="F89" s="3">
-        <v>4155800</v>
+        <v>2533000</v>
       </c>
       <c r="G89" s="3">
-        <v>2749500</v>
+        <v>4116400</v>
       </c>
       <c r="H89" s="3">
-        <v>7068500</v>
+        <v>2723400</v>
       </c>
       <c r="I89" s="3">
-        <v>3322300</v>
+        <v>7001500</v>
       </c>
       <c r="J89" s="3">
+        <v>3290800</v>
+      </c>
+      <c r="K89" s="3">
         <v>6593200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3195800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3107,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2725800</v>
+        <v>-2302100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2424200</v>
+        <v>-2569500</v>
       </c>
       <c r="F91" s="3">
-        <v>61900</v>
+        <v>-2306000</v>
       </c>
       <c r="G91" s="3">
-        <v>-4695700</v>
+        <v>-2281200</v>
       </c>
       <c r="H91" s="3">
-        <v>-8794800</v>
+        <v>-2017800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2451900</v>
+        <v>-3723800</v>
       </c>
       <c r="J91" s="3">
+        <v>-2279900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7942900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1809300</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3169,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3201,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2636200</v>
+        <v>-926100</v>
       </c>
       <c r="E94" s="3">
-        <v>5581900</v>
+        <v>-2611200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2968000</v>
+        <v>5529000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2712600</v>
+        <v>-2939900</v>
       </c>
       <c r="H94" s="3">
-        <v>-5314600</v>
+        <v>-2686900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1779000</v>
+        <v>-5264200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1762100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2634900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1310200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,37 +3249,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-455600</v>
+        <v>-926100</v>
       </c>
       <c r="E96" s="3">
-        <v>-5452800</v>
+        <v>-451300</v>
       </c>
       <c r="F96" s="3">
-        <v>-711100</v>
+        <v>-5401100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1215400</v>
+        <v>-704300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1760500</v>
+        <v>-1203900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1060000</v>
+        <v>-1743900</v>
       </c>
       <c r="J96" s="3">
+        <v>-1050000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1673600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-974400</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3311,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3343,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3375,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-351600</v>
+        <v>-1799900</v>
       </c>
       <c r="E100" s="3">
-        <v>-9586200</v>
+        <v>-348300</v>
       </c>
       <c r="F100" s="3">
-        <v>96100</v>
+        <v>-9495400</v>
       </c>
       <c r="G100" s="3">
-        <v>-5300</v>
+        <v>95200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1748700</v>
+        <v>-5200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1553800</v>
+        <v>-1732100</v>
       </c>
       <c r="J100" s="3">
+        <v>-1539100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4283500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1908000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2600</v>
       </c>
-      <c r="G101" s="3">
-        <v>18400</v>
-      </c>
       <c r="H101" s="3">
-        <v>5300</v>
+        <v>18300</v>
       </c>
       <c r="I101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>31600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>381900</v>
+        <v>-259600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1448500</v>
+        <v>378200</v>
       </c>
       <c r="F102" s="3">
-        <v>1286500</v>
+        <v>-1434700</v>
       </c>
       <c r="G102" s="3">
-        <v>50000</v>
+        <v>1274300</v>
       </c>
       <c r="H102" s="3">
-        <v>10500</v>
+        <v>49600</v>
       </c>
       <c r="I102" s="3">
-        <v>-13200</v>
+        <v>10400</v>
       </c>
       <c r="J102" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-293600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13200</v>
       </c>
     </row>

--- a/Financials/Quarterly/NGG_QTR_FIN.xlsx
+++ b/Financials/Quarterly/NGG_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD46A36-6EBD-4327-A0CB-941AB87911C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="NGG" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>NGG</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,104 +654,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8278500</v>
+        <v>8130500</v>
       </c>
       <c r="E8" s="3">
-        <v>11172700</v>
+        <v>11100100</v>
       </c>
       <c r="F8" s="3">
-        <v>8718000</v>
+        <v>8205500</v>
       </c>
       <c r="G8" s="3">
-        <v>11419200</v>
+        <v>11074200</v>
       </c>
       <c r="H8" s="3">
-        <v>8191100</v>
+        <v>8641100</v>
       </c>
       <c r="I8" s="3">
+        <v>11318600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8118800</v>
+      </c>
+      <c r="K8" s="3">
         <v>17232500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8939700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>17588400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8380100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,8 +796,14 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +834,14 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,8 +854,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -895,8 +888,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,40 +926,52 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>292200</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>-332600</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>340000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>289600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-329700</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>825600</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1053900</v>
-      </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+        <v>818300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1044600</v>
       </c>
       <c r="K14" s="3">
-        <v>172500</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <v>172500</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -991,8 +1002,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1002,72 +1019,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6952000</v>
+        <v>6833800</v>
       </c>
       <c r="E17" s="3">
-        <v>7979800</v>
+        <v>8704500</v>
       </c>
       <c r="F17" s="3">
-        <v>7056300</v>
+        <v>6890700</v>
       </c>
       <c r="G17" s="3">
-        <v>9155000</v>
+        <v>8205500</v>
       </c>
       <c r="H17" s="3">
-        <v>6271100</v>
+        <v>6994100</v>
       </c>
       <c r="I17" s="3">
+        <v>9074200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6215800</v>
+      </c>
+      <c r="K17" s="3">
         <v>13026100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6528100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>13875000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6225800</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1326500</v>
+        <v>1296700</v>
       </c>
       <c r="E18" s="3">
-        <v>3193000</v>
+        <v>2395600</v>
       </c>
       <c r="F18" s="3">
-        <v>1661700</v>
+        <v>1314800</v>
       </c>
       <c r="G18" s="3">
-        <v>2264300</v>
+        <v>2868700</v>
       </c>
       <c r="H18" s="3">
-        <v>1919900</v>
+        <v>1647000</v>
       </c>
       <c r="I18" s="3">
+        <v>2244300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1903000</v>
+      </c>
+      <c r="K18" s="3">
         <v>4206400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2411700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3713300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2154300</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1080,168 +1111,200 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-18300</v>
+        <v>-80200</v>
       </c>
       <c r="E20" s="3">
-        <v>-39100</v>
+        <v>-113800</v>
       </c>
       <c r="F20" s="3">
-        <v>-9100</v>
+        <v>-18100</v>
       </c>
       <c r="G20" s="3">
-        <v>-30000</v>
+        <v>210700</v>
       </c>
       <c r="H20" s="3">
-        <v>-151300</v>
+        <v>-9000</v>
       </c>
       <c r="I20" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-293500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-148700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-96100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-55300</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2339900</v>
+        <v>2293400</v>
       </c>
       <c r="E21" s="3">
-        <v>4155500</v>
+        <v>3312200</v>
       </c>
       <c r="F21" s="3">
-        <v>2646400</v>
+        <v>2319300</v>
       </c>
       <c r="G21" s="3">
-        <v>3243800</v>
+        <v>4072400</v>
       </c>
       <c r="H21" s="3">
-        <v>2690800</v>
+        <v>2623100</v>
       </c>
       <c r="I21" s="3">
+        <v>3215200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2667100</v>
+      </c>
+      <c r="K21" s="3">
         <v>5622900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3301200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>5200000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3048400</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>627400</v>
+        <v>694200</v>
       </c>
       <c r="E22" s="3">
-        <v>639100</v>
+        <v>576600</v>
       </c>
       <c r="F22" s="3">
-        <v>635200</v>
+        <v>621800</v>
       </c>
       <c r="G22" s="3">
-        <v>644300</v>
+        <v>649000</v>
       </c>
       <c r="H22" s="3">
-        <v>510000</v>
+        <v>629600</v>
       </c>
       <c r="I22" s="3">
+        <v>638600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>505500</v>
+      </c>
+      <c r="K22" s="3">
         <v>875200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>504800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1036300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>551700</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>680800</v>
+        <v>522300</v>
       </c>
       <c r="E23" s="3">
-        <v>2514700</v>
+        <v>1705200</v>
       </c>
       <c r="F23" s="3">
-        <v>1017400</v>
+        <v>674800</v>
       </c>
       <c r="G23" s="3">
-        <v>1590000</v>
+        <v>2430500</v>
       </c>
       <c r="H23" s="3">
-        <v>1258700</v>
+        <v>1008400</v>
       </c>
       <c r="I23" s="3">
+        <v>1575900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1247600</v>
+      </c>
+      <c r="K23" s="3">
         <v>3037700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1758200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2580900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1547200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>121300</v>
+        <v>20700</v>
       </c>
       <c r="E24" s="3">
-        <v>-1352600</v>
+        <v>318000</v>
       </c>
       <c r="F24" s="3">
-        <v>199600</v>
+        <v>120200</v>
       </c>
       <c r="G24" s="3">
-        <v>315600</v>
+        <v>605000</v>
       </c>
       <c r="H24" s="3">
-        <v>172200</v>
+        <v>197800</v>
       </c>
       <c r="I24" s="3">
+        <v>312900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>170700</v>
+      </c>
+      <c r="K24" s="3">
         <v>556900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>390000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>614900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>356900</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1272,72 +1335,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>559500</v>
+        <v>501600</v>
       </c>
       <c r="E26" s="3">
-        <v>3867300</v>
+        <v>1387200</v>
       </c>
       <c r="F26" s="3">
-        <v>817800</v>
+        <v>554600</v>
       </c>
       <c r="G26" s="3">
-        <v>1274300</v>
+        <v>1825400</v>
       </c>
       <c r="H26" s="3">
-        <v>1086500</v>
+        <v>810600</v>
       </c>
       <c r="I26" s="3">
+        <v>1263100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1076900</v>
+      </c>
+      <c r="K26" s="3">
         <v>2480800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1368200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1966000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1190400</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>558200</v>
+        <v>500300</v>
       </c>
       <c r="E27" s="3">
-        <v>3867300</v>
+        <v>1384600</v>
       </c>
       <c r="F27" s="3">
-        <v>816500</v>
+        <v>553300</v>
       </c>
       <c r="G27" s="3">
-        <v>1274300</v>
+        <v>1825400</v>
       </c>
       <c r="H27" s="3">
-        <v>1083900</v>
+        <v>809300</v>
       </c>
       <c r="I27" s="3">
+        <v>1263100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1074300</v>
+      </c>
+      <c r="K27" s="3">
         <v>2479500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1365600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1979100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1195600</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1368,40 +1449,52 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E29" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F29" s="3">
         <v>3900</v>
       </c>
-      <c r="E29" s="3">
-        <v>-118700</v>
-      </c>
-      <c r="F29" s="3">
-        <v>65200</v>
-      </c>
       <c r="G29" s="3">
-        <v>8235400</v>
+        <v>1890100</v>
       </c>
       <c r="H29" s="3">
-        <v>-429100</v>
+        <v>64600</v>
       </c>
       <c r="I29" s="3">
+        <v>8162800</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-425300</v>
+      </c>
+      <c r="K29" s="3">
         <v>900000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>679500</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>679500</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1432,8 +1525,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1464,72 +1563,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>18300</v>
+        <v>80200</v>
       </c>
       <c r="E32" s="3">
-        <v>39100</v>
+        <v>113800</v>
       </c>
       <c r="F32" s="3">
-        <v>9100</v>
+        <v>18100</v>
       </c>
       <c r="G32" s="3">
-        <v>30000</v>
+        <v>-210700</v>
       </c>
       <c r="H32" s="3">
-        <v>151300</v>
+        <v>9000</v>
       </c>
       <c r="I32" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K32" s="3">
         <v>293500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>148700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>96100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>562200</v>
+        <v>508100</v>
       </c>
       <c r="E33" s="3">
-        <v>3748600</v>
+        <v>1396200</v>
       </c>
       <c r="F33" s="3">
-        <v>881700</v>
+        <v>557200</v>
       </c>
       <c r="G33" s="3">
-        <v>9509700</v>
+        <v>3715500</v>
       </c>
       <c r="H33" s="3">
-        <v>654800</v>
+        <v>873900</v>
       </c>
       <c r="I33" s="3">
+        <v>9425900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>649000</v>
+      </c>
+      <c r="K33" s="3">
         <v>3379500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1365600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2658600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1195600</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1560,77 +1677,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>562200</v>
+        <v>508100</v>
       </c>
       <c r="E35" s="3">
-        <v>3748600</v>
+        <v>1396200</v>
       </c>
       <c r="F35" s="3">
-        <v>881700</v>
+        <v>557200</v>
       </c>
       <c r="G35" s="3">
-        <v>9509700</v>
+        <v>3715500</v>
       </c>
       <c r="H35" s="3">
-        <v>654800</v>
+        <v>873900</v>
       </c>
       <c r="I35" s="3">
+        <v>9425900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>649000</v>
+      </c>
+      <c r="K35" s="3">
         <v>3379500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1365600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2658600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1195600</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1643,8 +1778,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1657,296 +1794,352 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>169600</v>
+        <v>275400</v>
       </c>
       <c r="E41" s="3">
-        <v>429100</v>
+        <v>325800</v>
       </c>
       <c r="F41" s="3">
-        <v>50900</v>
+        <v>168100</v>
       </c>
       <c r="G41" s="3">
-        <v>1485600</v>
+        <v>425300</v>
       </c>
       <c r="H41" s="3">
-        <v>211300</v>
+        <v>50400</v>
       </c>
       <c r="I41" s="3">
+        <v>1472500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>209400</v>
+      </c>
+      <c r="K41" s="3">
         <v>165600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>150000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>156700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>453000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2162500</v>
+        <v>4403300</v>
       </c>
       <c r="E42" s="3">
-        <v>3513800</v>
+        <v>2561100</v>
       </c>
       <c r="F42" s="3">
-        <v>3356000</v>
+        <v>2143500</v>
       </c>
       <c r="G42" s="3">
-        <v>11401000</v>
+        <v>3482800</v>
       </c>
       <c r="H42" s="3">
-        <v>4245500</v>
+        <v>3326400</v>
       </c>
       <c r="I42" s="3">
+        <v>11300500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4208100</v>
+      </c>
+      <c r="K42" s="3">
         <v>3910300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3096400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3369700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>4334900</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3161600</v>
+        <v>3257900</v>
       </c>
       <c r="E43" s="3">
-        <v>3798200</v>
+        <v>4239100</v>
       </c>
       <c r="F43" s="3">
-        <v>2852500</v>
+        <v>3133800</v>
       </c>
       <c r="G43" s="3">
-        <v>3971600</v>
+        <v>3764700</v>
       </c>
       <c r="H43" s="3">
-        <v>3050800</v>
+        <v>2827400</v>
       </c>
       <c r="I43" s="3">
+        <v>3936600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3023900</v>
+      </c>
+      <c r="K43" s="3">
         <v>3224300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2796400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3734400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2486100</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>573900</v>
+        <v>603700</v>
       </c>
       <c r="E44" s="3">
-        <v>444800</v>
+        <v>478300</v>
       </c>
       <c r="F44" s="3">
-        <v>611700</v>
+        <v>568800</v>
       </c>
       <c r="G44" s="3">
-        <v>525600</v>
+        <v>440800</v>
       </c>
       <c r="H44" s="3">
-        <v>581700</v>
+        <v>606300</v>
       </c>
       <c r="I44" s="3">
+        <v>521000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>576600</v>
+      </c>
+      <c r="K44" s="3">
         <v>570000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>515200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>447700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>563600</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3013000</v>
+        <v>130600</v>
       </c>
       <c r="E45" s="3">
-        <v>528200</v>
+        <v>2668400</v>
       </c>
       <c r="F45" s="3">
-        <v>782600</v>
+        <v>2986400</v>
       </c>
       <c r="G45" s="3">
-        <v>320900</v>
+        <v>523600</v>
       </c>
       <c r="H45" s="3">
-        <v>284300</v>
+        <v>775700</v>
       </c>
       <c r="I45" s="3">
+        <v>727900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>281800</v>
+      </c>
+      <c r="K45" s="3">
         <v>362600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>230900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>233100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>267300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9080600</v>
+        <v>8670900</v>
       </c>
       <c r="E46" s="3">
-        <v>8714100</v>
+        <v>10272700</v>
       </c>
       <c r="F46" s="3">
-        <v>7653700</v>
+        <v>9000500</v>
       </c>
       <c r="G46" s="3">
-        <v>17704700</v>
+        <v>8637300</v>
       </c>
       <c r="H46" s="3">
-        <v>8373700</v>
+        <v>7586200</v>
       </c>
       <c r="I46" s="3">
+        <v>17548600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>8299800</v>
+      </c>
+      <c r="K46" s="3">
         <v>8232800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6788900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7941600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8104800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1673400</v>
+        <v>1987000</v>
       </c>
       <c r="E47" s="3">
-        <v>4000300</v>
+        <v>1648300</v>
       </c>
       <c r="F47" s="3">
-        <v>4417700</v>
+        <v>1658700</v>
       </c>
       <c r="G47" s="3">
-        <v>4151600</v>
+        <v>3965000</v>
       </c>
       <c r="H47" s="3">
-        <v>1282100</v>
+        <v>4378700</v>
       </c>
       <c r="I47" s="3">
+        <v>4115000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1270800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1146500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>996500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>853300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>836200</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55643200</v>
+        <v>61314100</v>
       </c>
       <c r="E48" s="3">
-        <v>51980700</v>
+        <v>56771200</v>
       </c>
       <c r="F48" s="3">
-        <v>51500700</v>
+        <v>55152600</v>
       </c>
       <c r="G48" s="3">
-        <v>51944100</v>
+        <v>51522400</v>
       </c>
       <c r="H48" s="3">
-        <v>60664800</v>
+        <v>51046600</v>
       </c>
       <c r="I48" s="3">
+        <v>51486200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>60129900</v>
+      </c>
+      <c r="K48" s="3">
         <v>56560100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>54091000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>53623600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>50500200</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8934500</v>
+        <v>9696100</v>
       </c>
       <c r="E49" s="3">
-        <v>8273200</v>
+        <v>8988900</v>
       </c>
       <c r="F49" s="3">
-        <v>8598000</v>
+        <v>8855700</v>
       </c>
       <c r="G49" s="3">
-        <v>9155000</v>
+        <v>8200300</v>
       </c>
       <c r="H49" s="3">
-        <v>8891500</v>
+        <v>8522200</v>
       </c>
       <c r="I49" s="3">
+        <v>9074200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>8813100</v>
+      </c>
+      <c r="K49" s="3">
         <v>8089300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>7688900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7831000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7125200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,8 +2170,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,40 +2208,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3924700</v>
+        <v>4021900</v>
       </c>
       <c r="E52" s="3">
-        <v>3708200</v>
+        <v>3718100</v>
       </c>
       <c r="F52" s="3">
-        <v>2964700</v>
+        <v>3890100</v>
       </c>
       <c r="G52" s="3">
-        <v>2920400</v>
+        <v>3675500</v>
       </c>
       <c r="H52" s="3">
-        <v>2863000</v>
+        <v>2938600</v>
       </c>
       <c r="I52" s="3">
+        <v>2894600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2837700</v>
+      </c>
+      <c r="K52" s="3">
         <v>2839500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2156000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2291200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2156900</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2073,40 +2284,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79256400</v>
+        <v>85690000</v>
       </c>
       <c r="E54" s="3">
-        <v>76676500</v>
+        <v>81399200</v>
       </c>
       <c r="F54" s="3">
-        <v>75134800</v>
+        <v>78557600</v>
       </c>
       <c r="G54" s="3">
-        <v>85875800</v>
+        <v>76000400</v>
       </c>
       <c r="H54" s="3">
-        <v>82075000</v>
+        <v>74472300</v>
       </c>
       <c r="I54" s="3">
+        <v>85118600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>81351400</v>
+      </c>
+      <c r="K54" s="3">
         <v>76868200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>71721400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>72540600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>68723300</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2119,8 +2342,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2133,200 +2358,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4100800</v>
+        <v>4488600</v>
       </c>
       <c r="E57" s="3">
-        <v>4503800</v>
+        <v>4872600</v>
       </c>
       <c r="F57" s="3">
-        <v>3759000</v>
+        <v>4064600</v>
       </c>
       <c r="G57" s="3">
-        <v>4362900</v>
+        <v>4464100</v>
       </c>
       <c r="H57" s="3">
-        <v>4089000</v>
+        <v>3725900</v>
       </c>
       <c r="I57" s="3">
+        <v>4324400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4053000</v>
+      </c>
+      <c r="K57" s="3">
         <v>4284700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3731600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4334900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3501300</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5392000</v>
+        <v>6493800</v>
       </c>
       <c r="E58" s="3">
-        <v>5800300</v>
+        <v>5781400</v>
       </c>
       <c r="F58" s="3">
-        <v>5039900</v>
+        <v>5344500</v>
       </c>
       <c r="G58" s="3">
-        <v>7168500</v>
+        <v>5749100</v>
       </c>
       <c r="H58" s="3">
-        <v>5411600</v>
+        <v>4995400</v>
       </c>
       <c r="I58" s="3">
+        <v>7105300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5363900</v>
+      </c>
+      <c r="K58" s="3">
         <v>4709900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3782500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3987200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3697500</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1235200</v>
+        <v>1348400</v>
       </c>
       <c r="E59" s="3">
-        <v>1039500</v>
+        <v>1148000</v>
       </c>
       <c r="F59" s="3">
-        <v>1158200</v>
+        <v>1224300</v>
       </c>
       <c r="G59" s="3">
-        <v>2178200</v>
+        <v>1030400</v>
       </c>
       <c r="H59" s="3">
-        <v>1669500</v>
+        <v>1148000</v>
       </c>
       <c r="I59" s="3">
+        <v>2159000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1654800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1076100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1006900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1387900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1223300</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10727900</v>
+        <v>12330800</v>
       </c>
       <c r="E60" s="3">
-        <v>11343600</v>
+        <v>11802100</v>
       </c>
       <c r="F60" s="3">
-        <v>9957100</v>
+        <v>10633400</v>
       </c>
       <c r="G60" s="3">
-        <v>13709600</v>
+        <v>11243600</v>
       </c>
       <c r="H60" s="3">
-        <v>11170100</v>
+        <v>9869300</v>
       </c>
       <c r="I60" s="3">
+        <v>13588700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>11071600</v>
+      </c>
+      <c r="K60" s="3">
         <v>10070600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8521100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9710000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8422200</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30664300</v>
+        <v>33932400</v>
       </c>
       <c r="E61" s="3">
-        <v>28927000</v>
+        <v>31361000</v>
       </c>
       <c r="F61" s="3">
-        <v>29014400</v>
+        <v>30394000</v>
       </c>
       <c r="G61" s="3">
-        <v>30184300</v>
+        <v>28671900</v>
       </c>
       <c r="H61" s="3">
-        <v>36623700</v>
+        <v>28758600</v>
       </c>
       <c r="I61" s="3">
+        <v>29918200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>36300800</v>
+      </c>
+      <c r="K61" s="3">
         <v>32259500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>30991700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>30130800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>30009600</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12645300</v>
+        <v>14842800</v>
       </c>
       <c r="E62" s="3">
-        <v>11822300</v>
+        <v>13195700</v>
       </c>
       <c r="F62" s="3">
-        <v>14157000</v>
+        <v>12533800</v>
       </c>
       <c r="G62" s="3">
-        <v>15394800</v>
+        <v>11718000</v>
       </c>
       <c r="H62" s="3">
-        <v>17886000</v>
+        <v>14032200</v>
       </c>
       <c r="I62" s="3">
+        <v>15259000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>17728300</v>
+      </c>
+      <c r="K62" s="3">
         <v>16845200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>16153900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>16932600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>14330600</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2357,8 +2620,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2389,8 +2658,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2421,40 +2696,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54061000</v>
+        <v>61134400</v>
       </c>
       <c r="E66" s="3">
-        <v>52113700</v>
+        <v>56384600</v>
       </c>
       <c r="F66" s="3">
-        <v>53149300</v>
+        <v>53584400</v>
       </c>
       <c r="G66" s="3">
-        <v>59309600</v>
+        <v>51654200</v>
       </c>
       <c r="H66" s="3">
-        <v>65696800</v>
+        <v>52680700</v>
       </c>
       <c r="I66" s="3">
+        <v>58786700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>65117500</v>
+      </c>
+      <c r="K66" s="3">
         <v>59188300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>55678400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>56789200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>52771700</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2467,8 +2754,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2499,8 +2788,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2531,8 +2826,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2563,8 +2864,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2595,40 +2902,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>28156100</v>
+        <v>27053300</v>
       </c>
       <c r="E72" s="3">
-        <v>28171800</v>
+        <v>28201400</v>
       </c>
       <c r="F72" s="3">
-        <v>25170600</v>
+        <v>27907900</v>
       </c>
       <c r="G72" s="3">
-        <v>29453900</v>
+        <v>27923400</v>
       </c>
       <c r="H72" s="3">
-        <v>19636400</v>
+        <v>24948600</v>
       </c>
       <c r="I72" s="3">
+        <v>29194200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>19463300</v>
+      </c>
+      <c r="K72" s="3">
         <v>21266800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>19880300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>19580700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>19807200</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2659,8 +2978,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2691,8 +3016,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2723,40 +3054,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25195400</v>
+        <v>24555600</v>
       </c>
       <c r="E76" s="3">
-        <v>24562800</v>
+        <v>25014600</v>
       </c>
       <c r="F76" s="3">
-        <v>21985400</v>
+        <v>24973200</v>
       </c>
       <c r="G76" s="3">
-        <v>26566200</v>
+        <v>24346200</v>
       </c>
       <c r="H76" s="3">
-        <v>16378200</v>
+        <v>21791600</v>
       </c>
       <c r="I76" s="3">
+        <v>26332000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>16233800</v>
+      </c>
+      <c r="K76" s="3">
         <v>17679900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>16043000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>15751400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>15951600</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2787,77 +3130,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>562200</v>
+        <v>508100</v>
       </c>
       <c r="E81" s="3">
-        <v>3748600</v>
+        <v>1396200</v>
       </c>
       <c r="F81" s="3">
-        <v>881700</v>
+        <v>557200</v>
       </c>
       <c r="G81" s="3">
-        <v>9509700</v>
+        <v>3715500</v>
       </c>
       <c r="H81" s="3">
-        <v>654800</v>
+        <v>873900</v>
       </c>
       <c r="I81" s="3">
+        <v>9425900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>649000</v>
+      </c>
+      <c r="K81" s="3">
         <v>3379500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1365600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2658600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1195600</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2870,40 +3231,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1031700</v>
+        <v>1076900</v>
       </c>
       <c r="E83" s="3">
-        <v>1001700</v>
+        <v>1030400</v>
       </c>
       <c r="F83" s="3">
-        <v>993900</v>
+        <v>1022600</v>
       </c>
       <c r="G83" s="3">
-        <v>803500</v>
+        <v>992900</v>
       </c>
       <c r="H83" s="3">
-        <v>1128200</v>
+        <v>985100</v>
       </c>
       <c r="I83" s="3">
+        <v>796400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1118300</v>
+      </c>
+      <c r="K83" s="3">
         <v>2105200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1038200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1967300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>949400</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2934,8 +3303,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2966,8 +3341,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2998,8 +3379,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3030,8 +3417,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3062,40 +3455,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2462500</v>
+        <v>2521000</v>
       </c>
       <c r="E89" s="3">
-        <v>3340300</v>
+        <v>3141500</v>
       </c>
       <c r="F89" s="3">
-        <v>2533000</v>
+        <v>2440800</v>
       </c>
       <c r="G89" s="3">
-        <v>4116400</v>
+        <v>3310900</v>
       </c>
       <c r="H89" s="3">
-        <v>2723400</v>
+        <v>2510600</v>
       </c>
       <c r="I89" s="3">
+        <v>4080100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2699400</v>
+      </c>
+      <c r="K89" s="3">
         <v>7001500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3290800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>6593200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3195800</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3108,40 +3513,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2302100</v>
+        <v>-2757600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2569500</v>
+        <v>-2417600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2306000</v>
+        <v>-2281800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2281200</v>
+        <v>-2546800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2017800</v>
+        <v>-2285700</v>
       </c>
       <c r="I91" s="3">
+        <v>-2261100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2000000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3723800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2279900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7942900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1809300</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3172,8 +3585,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3204,40 +3623,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-926100</v>
+        <v>-2333500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2611200</v>
+        <v>-3004500</v>
       </c>
       <c r="F94" s="3">
-        <v>5529000</v>
+        <v>-917900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2939900</v>
+        <v>-2588200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2686900</v>
+        <v>5480200</v>
       </c>
       <c r="I94" s="3">
+        <v>-2914000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2663200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5264200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1762100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2634900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1310200</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3250,40 +3681,48 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-926100</v>
+        <v>-720100</v>
       </c>
       <c r="E96" s="3">
-        <v>-451300</v>
+        <v>-581800</v>
       </c>
       <c r="F96" s="3">
-        <v>-5401100</v>
+        <v>-917900</v>
       </c>
       <c r="G96" s="3">
-        <v>-704300</v>
+        <v>-447300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1203900</v>
+        <v>-5353500</v>
       </c>
       <c r="I96" s="3">
+        <v>-698100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1193300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1743900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1050000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1673600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-974400</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3314,8 +3753,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3346,8 +3791,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3378,100 +3829,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1799900</v>
+        <v>-248200</v>
       </c>
       <c r="E100" s="3">
-        <v>-348300</v>
+        <v>20700</v>
       </c>
       <c r="F100" s="3">
-        <v>-9495400</v>
+        <v>-1784100</v>
       </c>
       <c r="G100" s="3">
-        <v>95200</v>
+        <v>-345200</v>
       </c>
       <c r="H100" s="3">
+        <v>-9411700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>94400</v>
+      </c>
+      <c r="J100" s="3">
         <v>-5200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1732100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1539100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-4283500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1908000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>3900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>2600</v>
       </c>
-      <c r="H101" s="3">
-        <v>18300</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K101" s="3">
         <v>5200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>31600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-259600</v>
+        <v>-50400</v>
       </c>
       <c r="E102" s="3">
-        <v>378200</v>
+        <v>157700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1434700</v>
+        <v>-257300</v>
       </c>
       <c r="G102" s="3">
-        <v>1274300</v>
+        <v>374900</v>
       </c>
       <c r="H102" s="3">
-        <v>49600</v>
+        <v>-1422100</v>
       </c>
       <c r="I102" s="3">
+        <v>1263100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K102" s="3">
         <v>10400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-293600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-13200</v>
       </c>
     </row>
